--- a/biology/Zoologie/Cryptoclididae/Cryptoclididae.xlsx
+++ b/biology/Zoologie/Cryptoclididae/Cryptoclididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptoclididés
-Les cryptoclididés (Cryptoclididae) forment une famille éteinte de plésiosaures de taille moyenne ayant vécu du Jurassique moyen au Crétacé inférieur. Ils ont de longs cous, des crânes larges et courts et des dents denses. Ils se nourrissaient de petites proies au corps mou comme les petits poissons et les crustacés. Les premiers membres de la famille sont apparus au début du Bajocien et ils représentaient le groupe dominant de plésiosaures à long cou au cours de la seconde moitié du Jurassique[3].
+Les cryptoclididés (Cryptoclididae) forment une famille éteinte de plésiosaures de taille moyenne ayant vécu du Jurassique moyen au Crétacé inférieur. Ils ont de longs cous, des crânes larges et courts et des dents denses. Ils se nourrissaient de petites proies au corps mou comme les petits poissons et les crustacés. Les premiers membres de la famille sont apparus au début du Bajocien et ils représentaient le groupe dominant de plésiosaures à long cou au cours de la seconde moitié du Jurassique.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, deux membres supposés du Crétacé supérieur du groupe ont été reclassés comme d'autres types de plésiosauroïdes. Kaiwhekea a été reclassé dans les Leptocleididae et Aristonectes a été transféré dans les Elasmosauridae[4].
-Cladogramme
-Ci-dessous, le cladogramme des Cryptoclididae basé d'après Roberts et al. (2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, deux membres supposés du Crétacé supérieur du groupe ont été reclassés comme d'autres types de plésiosauroïdes. Kaiwhekea a été reclassé dans les Leptocleididae et Aristonectes a été transféré dans les Elasmosauridae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cryptoclididae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptoclididae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, le cladogramme des Cryptoclididae basé d'après Roberts et al. (2020) :
 </t>
         </is>
       </c>
